--- a/trunk/MANSAD_artefatos_MED/MANSAD_MED_indicador_NOR_1.0.xlsx
+++ b/trunk/MANSAD_artefatos_MED/MANSAD_MED_indicador_NOR_1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="15015" windowHeight="9915" activeTab="9"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="15015" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Concepção" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:F7"/>
     </sheetView>
   </sheetViews>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2943,9 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3028,13 +3026,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -3047,13 +3045,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -3066,13 +3064,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -4177,9 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4224,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -4243,7 +4239,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -4262,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -4281,7 +4277,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -4300,7 +4296,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -4319,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -4338,7 +4334,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -4357,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
